--- a/Code/ProjectReporter/Helper/lianxiren.xlsx
+++ b/Code/ProjectReporter/Helper/lianxiren.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="456" windowWidth="18900" windowHeight="6696"/>
+    <workbookView xWindow="165" yWindow="450" windowWidth="18900" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>开户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位开户帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,36 +435,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" customWidth="1"/>
-    <col min="17" max="18" width="20.44140625" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="16" width="21.375" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -515,25 +502,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Code/ProjectReporter/Helper/lianxiren.xlsx
+++ b/Code/ProjectReporter/Helper/lianxiren.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隶属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位通信地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,15 +72,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每年为本项目工作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目或课题中职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>课题名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232622123456789000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881032XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市XXX区XXX路XXX号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责总体设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年为本项目工作时间(月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881033XXXX</t>
+  </si>
+  <si>
+    <t>1881034XXXX</t>
+  </si>
+  <si>
+    <t>1881035XXXX</t>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空发动机材料</t>
+  </si>
+  <si>
+    <t>航空发动机材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空发动机材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空发动机结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空一院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881036XXXX</t>
+  </si>
+  <si>
+    <t>航空发动机结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空发动机结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空发动机理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232622123456789001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232622123456789002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232622123456789003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,8 +237,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,30 +548,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="15" width="20.5" customWidth="1"/>
-    <col min="16" max="16" width="21.375" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="14" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,19 +614,278 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>24852</v>
+      </c>
+      <c r="K2">
+        <v>68111111</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
+        <v>24853</v>
+      </c>
+      <c r="K3">
+        <v>68111112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2">
+        <v>24854</v>
+      </c>
+      <c r="K4">
+        <v>68111113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
+        <v>24855</v>
+      </c>
+      <c r="K5">
+        <v>68111114</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>24856</v>
+      </c>
+      <c r="K6">
+        <v>68111115</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Code/ProjectReporter/Helper/lianxiren.xlsx
+++ b/Code/ProjectReporter/Helper/lianxiren.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,21 @@
   <si>
     <t>XX工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1968-01-15</t>
+  </si>
+  <si>
+    <t>1968-01-16</t>
+  </si>
+  <si>
+    <t>1968-01-17</t>
+  </si>
+  <si>
+    <t>1968-01-18</t>
+  </si>
+  <si>
+    <t>1968-01-19</t>
   </si>
 </sst>
 </file>
@@ -237,14 +252,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -654,8 +666,8 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2">
-        <v>24852</v>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K2">
         <v>68111111</v>
@@ -704,8 +716,8 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2">
-        <v>24853</v>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="K3">
         <v>68111112</v>
@@ -757,8 +769,8 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2">
-        <v>24854</v>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K4">
         <v>68111113</v>
@@ -810,8 +822,8 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2">
-        <v>24855</v>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="K5">
         <v>68111114</v>
@@ -863,8 +875,8 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="2">
-        <v>24856</v>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="K6">
         <v>68111115</v>
